--- a/convenios/mercantil.xlsx
+++ b/convenios/mercantil.xlsx
@@ -851,7 +851,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1172,16 +1172,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1722,27 +1722,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A3:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.625" style="10"/>
-    <col min="2" max="2" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="31" customWidth="1"/>
+    <col min="9" max="10" width="9.875" style="12" customWidth="1"/>
     <col min="11" max="16384" width="10.625" style="12"/>
   </cols>
   <sheetData>
@@ -3544,7 +3536,7 @@
         <v>11</v>
       </c>
       <c r="C73" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="13">
         <v>17</v>
@@ -3567,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="13">
         <v>17</v>
@@ -3590,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="C75" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="13">
         <v>17</v>
@@ -4150,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" s="13">
         <v>17</v>
@@ -4173,7 +4165,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="13">
         <v>17</v>
@@ -4196,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="13">
         <v>17</v>
@@ -4216,7 +4208,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4364,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16.5">
+    <row r="4" spans="2:4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -4712,13 +4703,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="B3:G435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -13573,13 +13561,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="B3:H264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
